--- a/tools/excel/nist/sp-800-66/nist-sp-800-66-rev2.xlsx
+++ b/tools/excel/nist/sp-800-66/nist-sp-800-66-rev2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\nist\sp-800-66\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\nist\sp-800-66\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE048A30-C5A4-43E8-BAFB-4F6A9365D1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAD88C6-9A49-4B43-8123-D6F3D5E5C973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="-15870" windowWidth="25440" windowHeight="15990" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3216" yWindow="1248" windowWidth="17280" windowHeight="9420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="659">
   <si>
     <t>type</t>
   </si>
@@ -2856,6 +2856,9 @@
   </si>
   <si>
     <t>Neutral</t>
+  </si>
+  <si>
+    <t>answers_definition</t>
   </si>
 </sst>
 </file>
@@ -3290,11 +3293,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3355,7 +3360,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>658</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -3370,8 +3375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
